--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_121.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_121.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,241 +488,279 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.3393665158371041</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E', 'A', 'A']]</t>
-        </is>
+          <t>jaah_49</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_86</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02588469764728758</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'F#', 'B', 'B']]</t>
+          <t>[['F:7', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(11.964095, 18.117383)]</t>
+          <t>[['F:7', 'Bb', 'Bb', 'Bb', 'Bb']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(22.168299, 40.546893)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:44.740000', '0:00:48.740000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:12.430000', '0:00:15.070000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_124</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3736263736263736</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_65</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(49.48, 62.36)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(2.02, 10.62)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:02:00.660000', '0:02:02.740000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_51</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1202898550724638</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min'], ['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_139</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_121</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1441647597254004</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min', 'C:min'], ['C', 'C/G', 'G:7', 'C']]</t>
+          <t>[['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72), (19.96, 23.02)]</t>
+          <t>[['A', 'B', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(23.04, 28.92), (253.0, 257.98)]</t>
+          <t>[('0:00:51.853310', '0:00:57.054580')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>[('0:00:07.935986', '0:00:12.498707')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:25yQPHgC35WNnnOUqFhgVR</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2014652014652015</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'D', 'A']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min'], ['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.446041, 4.075124)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(47.01526, 67.077301)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:16.260000', '0:00:21.140000'), ('0:00:36.600000', '0:00:39')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:12.740000', '0:00:26.980000'), ('0:01:11.700000', '0:01:18.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2095238095238095</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>isophonics_196</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_182</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09080188679245282</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(46.75, 47.53)]</t>
+          <t>[['G', 'C/5', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.98, 15.9)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:19.708503', '0:00:25.501882')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:59.182426', '0:01:04.464965')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['A', 'D', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:14.879000', '0:01:27.795000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -725,408 +768,376 @@
           <t>jaah_85</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0.1270161290322581</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6']]</t>
-        </is>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_213</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1733870967741936</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Ab', 'Ab']]</t>
+          <t>[['Ab', 'Ab:7', 'Db']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.427993)]</t>
+          <t>[['E', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(83.46, 88.05)]</t>
+          <t>[('0:01:34.880000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
+          <t>[('0:00:16.192174', '0:00:27.488682')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_155</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[('0:00:01.460000', '0:00:39.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_229</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1366071428571429</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Bb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4363636363636363</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:maj/9', 'B', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.043, 10.286)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(22.599387, 29.576984)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:06.726778', '0:00:13.147096')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_64</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04298921417565485</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj6', 'G:7', 'C:7', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:min7', 'D:7', 'G:7', 'C:maj']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(8.54, 14.0)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(24.03, 28.41)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_178</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(2.6, 4.5)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.0, 26.46)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:01.140000', '0:00:16.460000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.09646739130434782</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C', 'Bb/5', 'F']]</t>
+          <t>[['C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(15.586961, 20.776621)]</t>
+          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(31.217551, 34.874693)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
+          <t>[('0:00:12.094553', '0:00:24.840113')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:09.540000', '0:00:15.120000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(4.16, 8.8)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[('0:00:07.600000', '0:00:23.340000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_41</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(88.76, 98.3)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(13.42, 19.5)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:00.660000', '0:00:09.200000'), ('0:01:13.180000', '0:01:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_76</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(36.64, 38.52), (36.34, 37.98), (9.78, 14.36)]</t>
+          <t>[('0:00:48.440000', '0:00:53.480000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_273</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1031468531468532</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.801, 27.165)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.440395, 7.142059)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:55.560000', '0:01:00.520000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
